--- a/Year 1/Deliverables/Block A/Worklog Y1A ADSAI 2024-2025.xlsx
+++ b/Year 1/Deliverables/Block A/Worklog Y1A ADSAI 2024-2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laurens\Documents\GitHub\laurensvanbaardewijk243263\Year 1\Deliverables\Block A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AC491C-9D6D-4CF6-A9C4-D06EB22104DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0793F99-9057-4E37-9172-063B38CF72DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="732" windowWidth="23028" windowHeight="12228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worklog_Tasks&amp;Times" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Worklog_Tasks&amp;Times'!$A$1:$K$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Worklog_Tasks&amp;Times'!$A$1:$K$138</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Worklog_Tasks&amp;Times'!$A$1:$K$140</definedName>
     <definedName name="Z_8BAC9A6B_5D32_4E8D_967D_E17D357516F8_.wvu.FilterData" localSheetId="0" hidden="1">'Worklog_Tasks&amp;Times'!$A$1:$K$21</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="207">
   <si>
     <t>Date</t>
   </si>
@@ -717,6 +717,12 @@
   </si>
   <si>
     <t>Created the GitHub repository and relocated my files</t>
+  </si>
+  <si>
+    <t>Started on Calculus AB on Khan Acedemy</t>
+  </si>
+  <si>
+    <t>Presentations about the Power Bi dashboard</t>
   </si>
 </sst>
 </file>
@@ -1155,37 +1161,17 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1199,14 +1185,34 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1631,11 +1637,11 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K138"/>
+  <dimension ref="A1:K140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D138" sqref="D138"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J137" sqref="J137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.38671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1688,7 +1694,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="50" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="51"/>
@@ -1706,35 +1712,35 @@
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
     </row>
     <row r="4" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A5" s="33">
@@ -2248,7 +2254,7 @@
       <c r="K21" s="21"/>
     </row>
     <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="55" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="51"/>
@@ -2266,35 +2272,35 @@
       <c r="A23" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="56"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="54"/>
     </row>
     <row r="24" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="56"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="54"/>
     </row>
     <row r="25" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A25" s="27">
@@ -2775,53 +2781,53 @@
       <c r="K40" s="21"/>
     </row>
     <row r="41" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="65" t="s">
+      <c r="A41" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="55"/>
-      <c r="K41" s="56"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="54"/>
     </row>
     <row r="42" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A42" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="66" t="s">
+      <c r="B42" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="55"/>
-      <c r="J42" s="55"/>
-      <c r="K42" s="56"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="54"/>
     </row>
     <row r="43" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="66" t="s">
+      <c r="B43" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="55"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="55"/>
-      <c r="J43" s="55"/>
-      <c r="K43" s="56"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="54"/>
     </row>
     <row r="44" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A44" s="33">
@@ -3219,53 +3225,53 @@
       <c r="K56" s="21"/>
     </row>
     <row r="57" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="67" t="s">
+      <c r="A57" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B57" s="55"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="55"/>
-      <c r="H57" s="55"/>
-      <c r="I57" s="55"/>
-      <c r="J57" s="55"/>
-      <c r="K57" s="56"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="53"/>
+      <c r="G57" s="53"/>
+      <c r="H57" s="53"/>
+      <c r="I57" s="53"/>
+      <c r="J57" s="53"/>
+      <c r="K57" s="54"/>
     </row>
     <row r="58" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A58" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B58" s="61" t="s">
+      <c r="B58" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C58" s="55"/>
-      <c r="D58" s="55"/>
-      <c r="E58" s="55"/>
-      <c r="F58" s="55"/>
-      <c r="G58" s="55"/>
-      <c r="H58" s="55"/>
-      <c r="I58" s="55"/>
-      <c r="J58" s="55"/>
-      <c r="K58" s="56"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="53"/>
+      <c r="G58" s="53"/>
+      <c r="H58" s="53"/>
+      <c r="I58" s="53"/>
+      <c r="J58" s="53"/>
+      <c r="K58" s="54"/>
     </row>
     <row r="59" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B59" s="61" t="s">
+      <c r="B59" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="55"/>
-      <c r="D59" s="55"/>
-      <c r="E59" s="55"/>
-      <c r="F59" s="55"/>
-      <c r="G59" s="55"/>
-      <c r="H59" s="55"/>
-      <c r="I59" s="55"/>
-      <c r="J59" s="55"/>
-      <c r="K59" s="56"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="53"/>
+      <c r="F59" s="53"/>
+      <c r="G59" s="53"/>
+      <c r="H59" s="53"/>
+      <c r="I59" s="53"/>
+      <c r="J59" s="53"/>
+      <c r="K59" s="54"/>
     </row>
     <row r="60" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A60" s="33">
@@ -3650,53 +3656,53 @@
       <c r="K72" s="21"/>
     </row>
     <row r="73" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="62" t="s">
+      <c r="A73" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B73" s="55"/>
-      <c r="C73" s="55"/>
-      <c r="D73" s="55"/>
-      <c r="E73" s="55"/>
-      <c r="F73" s="55"/>
-      <c r="G73" s="55"/>
-      <c r="H73" s="55"/>
-      <c r="I73" s="55"/>
-      <c r="J73" s="55"/>
-      <c r="K73" s="56"/>
+      <c r="B73" s="53"/>
+      <c r="C73" s="53"/>
+      <c r="D73" s="53"/>
+      <c r="E73" s="53"/>
+      <c r="F73" s="53"/>
+      <c r="G73" s="53"/>
+      <c r="H73" s="53"/>
+      <c r="I73" s="53"/>
+      <c r="J73" s="53"/>
+      <c r="K73" s="54"/>
     </row>
     <row r="74" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A74" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B74" s="54" t="s">
+      <c r="B74" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C74" s="55"/>
-      <c r="D74" s="55"/>
-      <c r="E74" s="55"/>
-      <c r="F74" s="55"/>
-      <c r="G74" s="55"/>
-      <c r="H74" s="55"/>
-      <c r="I74" s="55"/>
-      <c r="J74" s="55"/>
-      <c r="K74" s="56"/>
+      <c r="C74" s="53"/>
+      <c r="D74" s="53"/>
+      <c r="E74" s="53"/>
+      <c r="F74" s="53"/>
+      <c r="G74" s="53"/>
+      <c r="H74" s="53"/>
+      <c r="I74" s="53"/>
+      <c r="J74" s="53"/>
+      <c r="K74" s="54"/>
     </row>
     <row r="75" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B75" s="54" t="s">
+      <c r="B75" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C75" s="55"/>
-      <c r="D75" s="55"/>
-      <c r="E75" s="55"/>
-      <c r="F75" s="55"/>
-      <c r="G75" s="55"/>
-      <c r="H75" s="55"/>
-      <c r="I75" s="55"/>
-      <c r="J75" s="55"/>
-      <c r="K75" s="56"/>
+      <c r="C75" s="53"/>
+      <c r="D75" s="53"/>
+      <c r="E75" s="53"/>
+      <c r="F75" s="53"/>
+      <c r="G75" s="53"/>
+      <c r="H75" s="53"/>
+      <c r="I75" s="53"/>
+      <c r="J75" s="53"/>
+      <c r="K75" s="54"/>
     </row>
     <row r="76" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A76" s="33">
@@ -4051,53 +4057,53 @@
       <c r="K88" s="21"/>
     </row>
     <row r="89" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="57" t="s">
+      <c r="A89" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="B89" s="55"/>
-      <c r="C89" s="55"/>
-      <c r="D89" s="55"/>
-      <c r="E89" s="55"/>
-      <c r="F89" s="55"/>
-      <c r="G89" s="55"/>
-      <c r="H89" s="55"/>
-      <c r="I89" s="55"/>
-      <c r="J89" s="55"/>
-      <c r="K89" s="56"/>
+      <c r="B89" s="53"/>
+      <c r="C89" s="53"/>
+      <c r="D89" s="53"/>
+      <c r="E89" s="53"/>
+      <c r="F89" s="53"/>
+      <c r="G89" s="53"/>
+      <c r="H89" s="53"/>
+      <c r="I89" s="53"/>
+      <c r="J89" s="53"/>
+      <c r="K89" s="54"/>
     </row>
     <row r="90" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A90" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B90" s="58" t="s">
+      <c r="B90" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="C90" s="55"/>
-      <c r="D90" s="55"/>
-      <c r="E90" s="55"/>
-      <c r="F90" s="55"/>
-      <c r="G90" s="55"/>
-      <c r="H90" s="55"/>
-      <c r="I90" s="55"/>
-      <c r="J90" s="55"/>
-      <c r="K90" s="56"/>
+      <c r="C90" s="53"/>
+      <c r="D90" s="53"/>
+      <c r="E90" s="53"/>
+      <c r="F90" s="53"/>
+      <c r="G90" s="53"/>
+      <c r="H90" s="53"/>
+      <c r="I90" s="53"/>
+      <c r="J90" s="53"/>
+      <c r="K90" s="54"/>
     </row>
     <row r="91" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B91" s="58" t="s">
+      <c r="B91" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="C91" s="55"/>
-      <c r="D91" s="55"/>
-      <c r="E91" s="55"/>
-      <c r="F91" s="55"/>
-      <c r="G91" s="55"/>
-      <c r="H91" s="55"/>
-      <c r="I91" s="55"/>
-      <c r="J91" s="55"/>
-      <c r="K91" s="56"/>
+      <c r="C91" s="53"/>
+      <c r="D91" s="53"/>
+      <c r="E91" s="53"/>
+      <c r="F91" s="53"/>
+      <c r="G91" s="53"/>
+      <c r="H91" s="53"/>
+      <c r="I91" s="53"/>
+      <c r="J91" s="53"/>
+      <c r="K91" s="54"/>
     </row>
     <row r="92" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A92" s="33">
@@ -4471,53 +4477,53 @@
       <c r="K104" s="21"/>
     </row>
     <row r="105" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="59" t="s">
+      <c r="A105" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="B105" s="55"/>
-      <c r="C105" s="55"/>
-      <c r="D105" s="55"/>
-      <c r="E105" s="55"/>
-      <c r="F105" s="55"/>
-      <c r="G105" s="55"/>
-      <c r="H105" s="55"/>
-      <c r="I105" s="55"/>
-      <c r="J105" s="55"/>
-      <c r="K105" s="56"/>
+      <c r="B105" s="53"/>
+      <c r="C105" s="53"/>
+      <c r="D105" s="53"/>
+      <c r="E105" s="53"/>
+      <c r="F105" s="53"/>
+      <c r="G105" s="53"/>
+      <c r="H105" s="53"/>
+      <c r="I105" s="53"/>
+      <c r="J105" s="53"/>
+      <c r="K105" s="54"/>
     </row>
     <row r="106" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A106" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B106" s="60" t="s">
+      <c r="B106" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C106" s="55"/>
-      <c r="D106" s="55"/>
-      <c r="E106" s="55"/>
-      <c r="F106" s="55"/>
-      <c r="G106" s="55"/>
-      <c r="H106" s="55"/>
-      <c r="I106" s="55"/>
-      <c r="J106" s="55"/>
-      <c r="K106" s="56"/>
+      <c r="C106" s="53"/>
+      <c r="D106" s="53"/>
+      <c r="E106" s="53"/>
+      <c r="F106" s="53"/>
+      <c r="G106" s="53"/>
+      <c r="H106" s="53"/>
+      <c r="I106" s="53"/>
+      <c r="J106" s="53"/>
+      <c r="K106" s="54"/>
     </row>
     <row r="107" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B107" s="60" t="s">
+      <c r="B107" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="C107" s="55"/>
-      <c r="D107" s="55"/>
-      <c r="E107" s="55"/>
-      <c r="F107" s="55"/>
-      <c r="G107" s="55"/>
-      <c r="H107" s="55"/>
-      <c r="I107" s="55"/>
-      <c r="J107" s="55"/>
-      <c r="K107" s="56"/>
+      <c r="C107" s="53"/>
+      <c r="D107" s="53"/>
+      <c r="E107" s="53"/>
+      <c r="F107" s="53"/>
+      <c r="G107" s="53"/>
+      <c r="H107" s="53"/>
+      <c r="I107" s="53"/>
+      <c r="J107" s="53"/>
+      <c r="K107" s="54"/>
     </row>
     <row r="108" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A108" s="33">
@@ -4897,22 +4903,22 @@
       <c r="A121" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="B121" s="55"/>
-      <c r="C121" s="55"/>
-      <c r="D121" s="55"/>
-      <c r="E121" s="55"/>
-      <c r="F121" s="55"/>
-      <c r="G121" s="55"/>
-      <c r="H121" s="55"/>
-      <c r="I121" s="55"/>
-      <c r="J121" s="55"/>
-      <c r="K121" s="56"/>
+      <c r="B121" s="53"/>
+      <c r="C121" s="53"/>
+      <c r="D121" s="53"/>
+      <c r="E121" s="53"/>
+      <c r="F121" s="53"/>
+      <c r="G121" s="53"/>
+      <c r="H121" s="53"/>
+      <c r="I121" s="53"/>
+      <c r="J121" s="53"/>
+      <c r="K121" s="54"/>
     </row>
     <row r="122" spans="1:11" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A122" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B122" s="50" t="s">
+      <c r="B122" s="64" t="s">
         <v>13</v>
       </c>
       <c r="C122" s="51"/>
@@ -4923,13 +4929,13 @@
       <c r="H122" s="51"/>
       <c r="I122" s="51"/>
       <c r="J122" s="51"/>
-      <c r="K122" s="52"/>
+      <c r="K122" s="65"/>
     </row>
     <row r="123" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B123" s="53" t="s">
+      <c r="B123" s="66" t="s">
         <v>15</v>
       </c>
       <c r="C123" s="51"/>
@@ -4940,7 +4946,7 @@
       <c r="H123" s="51"/>
       <c r="I123" s="51"/>
       <c r="J123" s="51"/>
-      <c r="K123" s="52"/>
+      <c r="K123" s="65"/>
     </row>
     <row r="124" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A124" s="33">
@@ -4968,7 +4974,7 @@
         <v>4</v>
       </c>
       <c r="I124" s="30">
-        <f t="shared" ref="I124:I136" si="12">H124-G124</f>
+        <f t="shared" ref="I124:I138" si="12">H124-G124</f>
         <v>0</v>
       </c>
       <c r="J124" s="29"/>
@@ -5262,61 +5268,134 @@
     </row>
     <row r="135" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A135" s="33"/>
-      <c r="B135" s="28"/>
-      <c r="C135" s="12"/>
-      <c r="D135" s="28"/>
-      <c r="E135" s="13"/>
-      <c r="F135" s="13"/>
-      <c r="G135" s="30"/>
-      <c r="H135" s="30"/>
-      <c r="I135" s="30"/>
+      <c r="B135" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D135" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="E135" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F135" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G135" s="30">
+        <v>4</v>
+      </c>
+      <c r="H135" s="30">
+        <v>4</v>
+      </c>
+      <c r="I135" s="30">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="J135" s="29"/>
       <c r="K135" s="28"/>
     </row>
     <row r="136" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
-      <c r="A136" s="19"/>
-      <c r="B136" s="21"/>
-      <c r="C136" s="21"/>
-      <c r="D136" s="21"/>
-      <c r="E136" s="21" t="s">
+      <c r="A136" s="33">
+        <v>45597</v>
+      </c>
+      <c r="B136" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D136" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="E136" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F136" s="13"/>
+      <c r="G136" s="30">
+        <v>5.5</v>
+      </c>
+      <c r="H136" s="30">
+        <v>5.5</v>
+      </c>
+      <c r="I136" s="30">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J136" s="29"/>
+      <c r="K136" s="28"/>
+    </row>
+    <row r="137" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A137" s="33"/>
+      <c r="B137" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C137" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D137" s="28"/>
+      <c r="E137" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F137" s="13"/>
+      <c r="G137" s="30">
+        <v>1</v>
+      </c>
+      <c r="H137" s="30">
+        <v>1</v>
+      </c>
+      <c r="I137" s="30">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J137" s="29"/>
+      <c r="K137" s="28"/>
+    </row>
+    <row r="138" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A138" s="19"/>
+      <c r="B138" s="21"/>
+      <c r="C138" s="21"/>
+      <c r="D138" s="21"/>
+      <c r="E138" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F136" s="21"/>
-      <c r="G136" s="24">
-        <f>SUM(G124:G134)</f>
-        <v>24.25</v>
-      </c>
-      <c r="H136" s="24">
-        <f>SUM(H124:H134)</f>
-        <v>24.25</v>
-      </c>
-      <c r="I136" s="24">
+      <c r="F138" s="21"/>
+      <c r="G138" s="24">
+        <f>SUM(G124:G137)</f>
+        <v>34.75</v>
+      </c>
+      <c r="H138" s="24">
+        <f>SUM(H124:H137)</f>
+        <v>34.75</v>
+      </c>
+      <c r="I138" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="J136" s="25"/>
-      <c r="K136" s="21"/>
-    </row>
-    <row r="137" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
-      <c r="G137" s="44"/>
-      <c r="H137" s="44"/>
-      <c r="I137" s="30"/>
-    </row>
-    <row r="138" spans="1:11" ht="12.6" x14ac:dyDescent="0.45">
-      <c r="E138" s="45" t="s">
+      <c r="J138" s="25"/>
+      <c r="K138" s="21"/>
+    </row>
+    <row r="139" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="G139" s="44"/>
+      <c r="H139" s="44"/>
+      <c r="I139" s="30"/>
+    </row>
+    <row r="140" spans="1:11" ht="12.6" x14ac:dyDescent="0.45">
+      <c r="E140" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="F138" s="45"/>
-      <c r="G138" s="46">
-        <f>G21+G40+G56+G72+G88+G104+G120+G136</f>
-        <v>242.57999999999998</v>
-      </c>
-      <c r="H138" s="46">
-        <f>H21+H40+H56+H72+H88+H104+H120+H136</f>
-        <v>235.32999999999998</v>
-      </c>
-      <c r="I138" s="46">
-        <f>H138-G138</f>
+      <c r="F140" s="45"/>
+      <c r="G140" s="46">
+        <f>G21+G40+G56+G72+G88+G104+G120+G138</f>
+        <v>253.07999999999998</v>
+      </c>
+      <c r="H140" s="46">
+        <f>H21+H40+H56+H72+H88+H104+H120+H138</f>
+        <v>245.82999999999998</v>
+      </c>
+      <c r="I140" s="46">
+        <f>H140-G140</f>
         <v>-7.25</v>
       </c>
     </row>
@@ -5325,7 +5404,7 @@
   <customSheetViews>
     <customSheetView guid="{8BAC9A6B-5D32-4E8D-967D-E17D357516F8}" filter="1" showAutoFilter="1">
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <autoFilter ref="A1:K15" xr:uid="{0A552F0E-0ECC-42D1-805F-519D71C5E4AF}">
+      <autoFilter ref="A1:K15" xr:uid="{12F80E61-7DCE-4112-93A3-39DE0EF7F29A}">
         <filterColumn colId="1">
           <filters blank="1">
             <filter val="- Weekplan item 1_x000a_- Weekplan item 2_x000a_- Weekplan item 3_x000a_- etc"/>
@@ -5336,21 +5415,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="24">
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="B23:K23"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="A41:K41"/>
-    <mergeCell ref="B42:K42"/>
-    <mergeCell ref="B43:K43"/>
-    <mergeCell ref="A57:K57"/>
-    <mergeCell ref="B58:K58"/>
-    <mergeCell ref="B59:K59"/>
-    <mergeCell ref="A73:K73"/>
-    <mergeCell ref="B74:K74"/>
-    <mergeCell ref="A121:K121"/>
     <mergeCell ref="B122:K122"/>
     <mergeCell ref="B123:K123"/>
     <mergeCell ref="B75:K75"/>
@@ -5360,8 +5424,23 @@
     <mergeCell ref="A105:K105"/>
     <mergeCell ref="B106:K106"/>
     <mergeCell ref="B107:K107"/>
+    <mergeCell ref="B58:K58"/>
+    <mergeCell ref="B59:K59"/>
+    <mergeCell ref="A73:K73"/>
+    <mergeCell ref="B74:K74"/>
+    <mergeCell ref="A121:K121"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="B42:K42"/>
+    <mergeCell ref="B43:K43"/>
+    <mergeCell ref="A57:K57"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="B23:K23"/>
   </mergeCells>
-  <conditionalFormatting sqref="B5:B20 B23:B39 B44:B55 B60:B71 B76:B87 B92:B103 B108:B119 B124:B135">
+  <conditionalFormatting sqref="B5:B20 B23:B39 B44:B55 B60:B71 B76:B87 B92:B103 B108:B119 B124:B137">
     <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="Unplanned">
       <formula>NOT(ISERROR(SEARCH(("Unplanned"),(B5))))</formula>
     </cfRule>
@@ -5378,7 +5457,7 @@
       <formula>NOT(ISERROR(SEARCH(("Done"),(B5))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:B21 B23:B40 B42:B56 B58:B72 B74:B88 B90:B104 B106:B120 B122:B135">
+  <conditionalFormatting sqref="B5:B21 B23:B40 B42:B56 B58:B72 B74:B88 B90:B104 B106:B120 B122:B137">
     <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Unplanned">
       <formula>NOT(ISERROR(SEARCH(("Unplanned"),(B5))))</formula>
     </cfRule>
@@ -5386,17 +5465,17 @@
       <formula>NOT(ISERROR(SEARCH(("Cancelled"),(B5))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1 G3:G21 G25:G40 G44:G56 G60:G72 G76:G88 G92:G104 G108:G120 G124:G138">
+  <conditionalFormatting sqref="G1 G3:G21 G25:G40 G44:G56 G60:G72 G76:G88 G92:G104 G108:G120 G124:G140">
     <cfRule type="cellIs" dxfId="3" priority="10" operator="greaterThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H138">
+  <conditionalFormatting sqref="H1:H140">
     <cfRule type="containsBlanks" dxfId="2" priority="11">
       <formula>LEN(TRIM(H1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I21 I25:I40 I44:I56 I60:I72 I76:I88 I92:I104 I108:I120 I124:I138">
+  <conditionalFormatting sqref="I5:I21 I25:I40 I44:I56 I60:I72 I76:I88 I92:I104 I108:I120 I124:I140">
     <cfRule type="expression" dxfId="1" priority="8">
       <formula>H5/G5&gt;=1.5</formula>
     </cfRule>
@@ -5447,19 +5526,19 @@
           <x14:formula1>
             <xm:f>'Drop-downs'!$B$2:$B$16</xm:f>
           </x14:formula1>
-          <xm:sqref>E25:E39 E44:E55 E5:E20 E76:E87 E92:E103 E108:E119 E124:E135 E60:E71</xm:sqref>
+          <xm:sqref>E25:E39 E44:E55 E5:E20 E76:E87 E92:E103 E108:E119 E124:E137 E60:E71</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>'Drop-downs'!$A$2:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>B25:B39 B44:B55 B5:B20 B76:B87 B92:B103 B108:B119 B124:B135 B60:B71</xm:sqref>
+          <xm:sqref>B25:B39 B44:B55 B5:B20 B76:B87 B92:B103 B108:B119 B124:B137 B60:B71</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{022AB9B7-3090-420D-A92F-6C31608AE4FF}">
           <x14:formula1>
             <xm:f>'Drop-downs'!$C$2:$C$9</xm:f>
           </x14:formula1>
-          <xm:sqref>F25:F39 F124:F135 F44:F55 F5:F20 F76:F87 F92:F103 F108:F119 F60:F71</xm:sqref>
+          <xm:sqref>F25:F39 F124:F137 F44:F55 F5:F20 F76:F87 F92:F103 F108:F119 F60:F71</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7091,14 +7170,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5ff92c65-ed86-4457-baee-ccd535c9ea21">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="6c8d291c-a5bf-4049-930d-38db8e991d8e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7331,21 +7408,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5ff92c65-ed86-4457-baee-ccd535c9ea21">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="6c8d291c-a5bf-4049-930d-38db8e991d8e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{320CF63A-30C9-4A8C-8DF9-EA62B8EC1A62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67A64A65-7DA4-4AE1-9847-B817073E4705}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5ff92c65-ed86-4457-baee-ccd535c9ea21"/>
-    <ds:schemaRef ds:uri="6c8d291c-a5bf-4049-930d-38db8e991d8e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7370,9 +7446,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67A64A65-7DA4-4AE1-9847-B817073E4705}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{320CF63A-30C9-4A8C-8DF9-EA62B8EC1A62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5ff92c65-ed86-4457-baee-ccd535c9ea21"/>
+    <ds:schemaRef ds:uri="6c8d291c-a5bf-4049-930d-38db8e991d8e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>